--- a/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D402F479-5B24-4F27-AB45-8616A443F153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E013D3-F12B-4277-8ECE-34B885819CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0A09F53A-B332-40C2-B34D-D73665A7FDBA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{64FE0216-C7DC-45E2-94CC-48C1B039B215}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,159 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
@@ -112,21 +244,6 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
     <t>34,22%</t>
   </si>
   <si>
@@ -154,18 +271,6 @@
     <t>38,71%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>61,96%</t>
   </si>
   <si>
@@ -193,109 +298,25 @@
     <t>63,82%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>3,63%</t>
@@ -325,18 +346,6 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>34,06%</t>
   </si>
   <si>
@@ -364,15 +373,6 @@
     <t>38,46%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>62,3%</t>
   </si>
   <si>
@@ -400,6 +400,108 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
     <t>3,75%</t>
   </si>
   <si>
@@ -424,15 +526,6 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>30,35%</t>
   </si>
   <si>
@@ -460,9 +553,6 @@
     <t>36,54%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>65,42%</t>
   </si>
   <si>
@@ -490,94 +580,28 @@
     <t>66,78%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>3,91%</t>
@@ -607,21 +631,6 @@
     <t>4,37%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>30,05%</t>
   </si>
   <si>
@@ -649,15 +658,6 @@
     <t>36,35%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>65,66%</t>
   </si>
   <si>
@@ -688,6 +688,102 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
@@ -712,9 +808,6 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>31,23%</t>
   </si>
   <si>
@@ -739,15 +832,6 @@
     <t>28,93%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>66,15%</t>
   </si>
   <si>
@@ -772,88 +856,19 @@
     <t>67,39%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>3,0%</t>
@@ -880,9 +895,6 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>30,06%</t>
   </si>
   <si>
@@ -908,18 +920,6 @@
   </si>
   <si>
     <t>34,19%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
   </si>
   <si>
     <t>66,94%</t>
@@ -1338,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC7539A-87EB-4404-BDB6-D76DBD3AAA1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A3A55D-9E0E-4643-A556-FCD377C7B278}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1728,10 +1728,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10673</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1743,34 +1743,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>10096</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="M10" s="7">
-        <v>31</v>
-      </c>
-      <c r="N10" s="7">
-        <v>20769</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,43 +1785,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,49 +1830,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>95662</v>
+        <v>1881</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1313</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3193</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7">
-        <v>145</v>
-      </c>
-      <c r="I12" s="7">
-        <v>96871</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="7">
-        <v>289</v>
-      </c>
-      <c r="N12" s="7">
-        <v>192534</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,49 +1881,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>22058</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>661</v>
+        <v>22489</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>661</v>
+        <v>44547</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,49 +1932,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>173186</v>
+        <v>42127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>156527</v>
+        <v>31543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7">
-        <v>329714</v>
+        <v>73670</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,102 +1983,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264156</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>811</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>543678</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1881</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>661</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1313</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>661</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3193</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,43 +2093,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,49 +2138,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>22058</v>
+        <v>10673</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10096</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="7">
+        <v>31</v>
+      </c>
+      <c r="N18" s="7">
+        <v>20769</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="7">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22489</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="7">
-        <v>66</v>
-      </c>
-      <c r="N18" s="7">
-        <v>44547</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,46 +2189,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>95662</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>96871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="7">
+        <v>289</v>
+      </c>
+      <c r="N19" s="7">
+        <v>192534</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>76</v>
@@ -2240,10 +2240,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>42127</v>
+        <v>173186</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>77</v>
@@ -2255,10 +2255,10 @@
         <v>79</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="I20" s="7">
-        <v>31543</v>
+        <v>156527</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>80</v>
@@ -2270,10 +2270,10 @@
         <v>82</v>
       </c>
       <c r="M20" s="7">
-        <v>111</v>
+        <v>490</v>
       </c>
       <c r="N20" s="7">
-        <v>73670</v>
+        <v>329714</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>83</v>
@@ -2291,49 +2291,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264156</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>811</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>543678</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,49 +2344,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>12554</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>661</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="7">
-        <v>17</v>
-      </c>
-      <c r="I22" s="7">
-        <v>11409</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>661</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="7">
-        <v>36</v>
-      </c>
-      <c r="N22" s="7">
-        <v>23963</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2416,13 +2416,13 @@
         <v>696</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2431,13 +2431,13 @@
         <v>696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,49 +2446,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>117720</v>
+        <v>12554</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="7">
+        <v>17</v>
+      </c>
+      <c r="I24" s="7">
+        <v>11409</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="7">
+        <v>36</v>
+      </c>
+      <c r="N24" s="7">
+        <v>23963</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H24" s="7">
-        <v>178</v>
-      </c>
-      <c r="I24" s="7">
-        <v>119361</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="7">
-        <v>355</v>
-      </c>
-      <c r="N24" s="7">
-        <v>237080</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,46 +2497,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>117720</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="I25" s="7">
-        <v>661</v>
+        <v>119361</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="7">
+        <v>355</v>
+      </c>
+      <c r="N25" s="7">
+        <v>237080</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>661</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>110</v>
@@ -2572,7 +2572,7 @@
         <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>115</v>
@@ -2605,13 +2605,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2620,13 +2620,13 @@
         <v>320198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>994</v>
@@ -2635,13 +2635,13 @@
         <v>665785</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15F9AD8-E8E0-4428-BD04-E69F206DC68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B55A34-3C91-4D3B-8180-42976BCCEB56}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3050,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9979</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>675</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6752</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>675</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16731</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,19 +3101,19 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3122,28 +3122,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3152,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>80842</v>
+        <v>2963</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>612</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3575</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="7">
-        <v>132</v>
-      </c>
-      <c r="I12" s="7">
-        <v>91539</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="7">
-        <v>249</v>
-      </c>
-      <c r="N12" s="7">
-        <v>172381</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,46 +3203,46 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>18628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>25096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>43724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>140</v>
@@ -3254,10 +3254,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>174242</v>
+        <v>43138</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>141</v>
@@ -3269,10 +3269,10 @@
         <v>143</v>
       </c>
       <c r="H14" s="7">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>150998</v>
+        <v>45585</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>144</v>
@@ -3284,10 +3284,10 @@
         <v>146</v>
       </c>
       <c r="M14" s="7">
-        <v>472</v>
+        <v>124</v>
       </c>
       <c r="N14" s="7">
-        <v>325241</v>
+        <v>88723</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>147</v>
@@ -3305,102 +3305,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>392</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>266334</v>
+        <v>64729</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249289</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>747</v>
+        <v>191</v>
       </c>
       <c r="N15" s="7">
-        <v>515624</v>
+        <v>136698</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2963</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>612</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3575</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,19 +3409,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3430,28 +3430,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3460,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>18628</v>
+        <v>9979</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="7">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6752</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="7">
+        <v>24</v>
+      </c>
+      <c r="N18" s="7">
+        <v>16731</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="7">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25096</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M18" s="7">
-        <v>61</v>
-      </c>
-      <c r="N18" s="7">
-        <v>43724</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,46 +3511,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>80842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="I19" s="7">
-        <v>675</v>
+        <v>91539</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" s="7">
+        <v>249</v>
+      </c>
+      <c r="N19" s="7">
+        <v>172381</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>675</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>170</v>
@@ -3562,10 +3562,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="D20" s="7">
-        <v>43138</v>
+        <v>174242</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>171</v>
@@ -3577,10 +3577,10 @@
         <v>173</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="I20" s="7">
-        <v>45585</v>
+        <v>150998</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>174</v>
@@ -3592,10 +3592,10 @@
         <v>176</v>
       </c>
       <c r="M20" s="7">
-        <v>124</v>
+        <v>472</v>
       </c>
       <c r="N20" s="7">
-        <v>88723</v>
+        <v>325241</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>177</v>
@@ -3613,49 +3613,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>392</v>
       </c>
       <c r="D21" s="7">
-        <v>64729</v>
+        <v>266334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>191</v>
+        <v>747</v>
       </c>
       <c r="N21" s="7">
-        <v>136698</v>
+        <v>515624</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,49 +3666,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>12942</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>675</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>675</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7365</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M22" s="7">
-        <v>29</v>
-      </c>
-      <c r="N22" s="7">
-        <v>20306</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>1271</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3738,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3753,13 +3753,13 @@
         <v>1271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,49 +3768,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>99470</v>
+        <v>12942</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7365</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="7">
+        <v>29</v>
+      </c>
+      <c r="N24" s="7">
+        <v>20306</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H24" s="7">
-        <v>167</v>
-      </c>
-      <c r="I24" s="7">
-        <v>116635</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M24" s="7">
-        <v>310</v>
-      </c>
-      <c r="N24" s="7">
-        <v>216105</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,46 +3819,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>99470</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="7">
+        <v>167</v>
+      </c>
+      <c r="I25" s="7">
+        <v>116635</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" s="7">
+        <v>310</v>
+      </c>
+      <c r="N25" s="7">
+        <v>216105</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>675</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>675</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>205</v>
@@ -3927,13 +3927,13 @@
         <v>331064</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>456</v>
@@ -3942,13 +3942,13 @@
         <v>321258</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>938</v>
@@ -3957,13 +3957,13 @@
         <v>652322</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +3982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CAB41C-0C5D-4CE2-B88A-BBC0CEF06179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43079289-A37C-4AF5-8FCB-B112A8E87F45}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4372,49 +4372,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7352</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10648</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" s="7">
-        <v>26</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18000</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4444,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4459,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +4474,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>87486</v>
+        <v>3408</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3749</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M12" s="7">
+        <v>11</v>
+      </c>
+      <c r="N12" s="7">
+        <v>7157</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="7">
-        <v>123</v>
-      </c>
-      <c r="I12" s="7">
-        <v>89162</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M12" s="7">
-        <v>242</v>
-      </c>
-      <c r="N12" s="7">
-        <v>176648</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,49 +4525,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>20493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>993</v>
+        <v>24917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M13" s="7">
+        <v>68</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45410</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>993</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,40 +4576,40 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7">
-        <v>185315</v>
+        <v>55118</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>95</v>
+      </c>
+      <c r="I14" s="7">
+        <v>62847</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H14" s="7">
-        <v>232</v>
-      </c>
-      <c r="I14" s="7">
-        <v>164456</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="M14" s="7">
-        <v>482</v>
+        <v>173</v>
       </c>
       <c r="N14" s="7">
-        <v>349770</v>
+        <v>117965</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>241</v>
@@ -4627,102 +4627,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>280153</v>
+        <v>79019</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>545411</v>
+        <v>170532</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3408</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>993</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>993</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3749</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7157</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4752,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4767,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,49 +4782,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7352</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="7">
-        <v>20493</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="7">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10648</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M18" s="7">
+        <v>26</v>
+      </c>
+      <c r="N18" s="7">
+        <v>18000</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="7">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24917</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M18" s="7">
-        <v>68</v>
-      </c>
-      <c r="N18" s="7">
-        <v>45410</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,49 +4833,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>87486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>89162</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>176648</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,40 +4884,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="D20" s="7">
-        <v>55118</v>
+        <v>185315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="I20" s="7">
-        <v>62847</v>
+        <v>164456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
-        <v>173</v>
+        <v>482</v>
       </c>
       <c r="N20" s="7">
-        <v>117965</v>
+        <v>349770</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>269</v>
@@ -4935,49 +4935,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="D21" s="7">
-        <v>79019</v>
+        <v>280153</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>751</v>
       </c>
       <c r="N21" s="7">
-        <v>170532</v>
+        <v>545411</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,49 +4988,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>10760</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>993</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H22" s="7">
-        <v>22</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14397</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>993</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M22" s="7">
-        <v>37</v>
-      </c>
-      <c r="N22" s="7">
-        <v>25157</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5045,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5060,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5075,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,49 +5090,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>107979</v>
+        <v>10760</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14397</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M24" s="7">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7">
+        <v>25157</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H24" s="7">
-        <v>160</v>
-      </c>
-      <c r="I24" s="7">
-        <v>114080</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M24" s="7">
-        <v>310</v>
-      </c>
-      <c r="N24" s="7">
-        <v>222058</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,46 +5141,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>107979</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="I25" s="7">
-        <v>993</v>
+        <v>114080</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>310</v>
+      </c>
+      <c r="N25" s="7">
+        <v>222058</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>993</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>293</v>
@@ -5249,13 +5249,13 @@
         <v>359172</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5264,13 +5264,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>1003</v>
@@ -5279,13 +5279,13 @@
         <v>715944</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E013D3-F12B-4277-8ECE-34B885819CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D89C6C1-09C2-4290-9C1F-E0395B3C70DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{64FE0216-C7DC-45E2-94CC-48C1B039B215}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27D3A375-FE04-4BDD-95D4-F14CD7DFB7FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="310">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -67,28 +67,112 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -97,856 +181,793 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>0,7%</t>
   </si>
 </sst>
 </file>
@@ -957,7 +978,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1053,39 +1074,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1137,7 +1158,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1248,13 +1269,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1263,6 +1277,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1327,19 +1348,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A3A55D-9E0E-4643-A556-FCD377C7B278}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8C52DD-5935-4EDB-AD4E-CA2896467844}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1730,47 +1771,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,47 +1816,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,49 +1859,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,49 +1904,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44547</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,49 +1949,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7">
-        <v>42127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7">
-        <v>31543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
-      </c>
-      <c r="N14" s="7">
-        <v>73670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,102 +1994,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>83608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>661</v>
+        <v>80220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="N16" s="7">
-        <v>661</v>
+        <v>163828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,49 +2092,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>52526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>40868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>93394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,49 +2143,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5381</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5110</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
-        <v>10673</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10096</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="7">
-        <v>31</v>
-      </c>
       <c r="N18" s="7">
-        <v>20769</v>
+        <v>10491</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,49 +2194,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>95662</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>96871</v>
+        <v>696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>192534</v>
+        <v>696</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,49 +2245,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>173186</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>156527</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>329714</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,102 +2296,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>264156</v>
+        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>811</v>
+        <v>402</v>
       </c>
       <c r="N21" s="7">
-        <v>543678</v>
+        <v>268409</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>131705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I22" s="7">
-        <v>661</v>
+        <v>107851</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="N22" s="7">
-        <v>661</v>
+        <v>239557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,49 +2400,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>65194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I23" s="7">
-        <v>696</v>
+        <v>78493</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="N23" s="7">
-        <v>696</v>
+        <v>143687</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,49 +2451,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>12554</v>
+        <v>7173</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>11409</v>
+        <v>6298</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>23963</v>
+        <v>13472</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,49 +2502,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>117720</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>119361</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>237080</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,49 +2553,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>215313</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H26" s="7">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>188071</v>
+        <v>661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="M26" s="7">
-        <v>601</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>403384</v>
+        <v>661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,55 +2604,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>397376</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>323</v>
+      </c>
+      <c r="D28" s="7">
+        <v>215313</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="7">
+        <v>278</v>
+      </c>
+      <c r="I28" s="7">
+        <v>188071</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="7">
+        <v>601</v>
+      </c>
+      <c r="N28" s="7">
+        <v>403384</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>177</v>
+      </c>
+      <c r="D29" s="7">
+        <v>117720</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="7">
+        <v>178</v>
+      </c>
+      <c r="I29" s="7">
+        <v>119361</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" s="7">
+        <v>355</v>
+      </c>
+      <c r="N29" s="7">
+        <v>237080</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12554</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="7">
+        <v>17</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11409</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" s="7">
+        <v>36</v>
+      </c>
+      <c r="N30" s="7">
+        <v>23963</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>696</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>696</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>661</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>661</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320198</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="7">
         <v>994</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>665785</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2660,8 +2979,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B55A34-3C91-4D3B-8180-42976BCCEB56}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D367926-82A6-45F2-89C3-DB6C048ED2F6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2677,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3052,47 +3371,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,47 +3416,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3459,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3504,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7">
-        <v>18628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3549,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>124</v>
-      </c>
-      <c r="N14" s="7">
-        <v>88723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,102 +3594,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>64729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>191</v>
-      </c>
-      <c r="N15" s="7">
-        <v>136698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>101585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>102253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>203838</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +3692,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>1271</v>
+        <v>46775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>51365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="N17" s="7">
-        <v>1271</v>
+        <v>98139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3743,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>9979</v>
+        <v>6870</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>6752</v>
+        <v>1221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>16731</v>
+        <v>8091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3794,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>80842</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>91539</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>172381</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3845,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>174242</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>150998</v>
+        <v>675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>325241</v>
+        <v>675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,102 +3896,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>392</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>266334</v>
+        <v>155230</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>249289</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>747</v>
+        <v>444</v>
       </c>
       <c r="N21" s="7">
-        <v>515624</v>
+        <v>310744</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>115796</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="I22" s="7">
-        <v>675</v>
+        <v>94330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="N22" s="7">
-        <v>675</v>
+        <v>210126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,49 +4000,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>1271</v>
+        <v>52695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>65271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="N23" s="7">
-        <v>1271</v>
+        <v>117966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,49 +4051,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>12942</v>
+        <v>6072</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>7365</v>
+        <v>6143</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N24" s="7">
-        <v>20306</v>
+        <v>12215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,49 +4102,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>99470</v>
+        <v>1271</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>116635</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>216105</v>
+        <v>1271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,49 +4153,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>217381</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>196583</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>413964</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,55 +4204,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
+        <v>235</v>
+      </c>
+      <c r="I27" s="7">
+        <v>165744</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341578</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>318</v>
+      </c>
+      <c r="D28" s="7">
+        <v>217381</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="7">
+        <v>278</v>
+      </c>
+      <c r="I28" s="7">
+        <v>196583</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" s="7">
+        <v>596</v>
+      </c>
+      <c r="N28" s="7">
+        <v>413964</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>143</v>
+      </c>
+      <c r="D29" s="7">
+        <v>99470</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H29" s="7">
+        <v>167</v>
+      </c>
+      <c r="I29" s="7">
+        <v>116635</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" s="7">
+        <v>310</v>
+      </c>
+      <c r="N29" s="7">
+        <v>216105</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12942</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7365</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M30" s="7">
+        <v>29</v>
+      </c>
+      <c r="N30" s="7">
+        <v>20306</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1271</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1271</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>675</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>675</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331064</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>456</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321258</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="7">
         <v>938</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>652322</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3982,8 +4579,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43079289-A37C-4AF5-8FCB-B112A8E87F45}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56385954-7359-4B84-809D-ABB18438A314}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3999,7 +4596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4374,47 +4971,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,47 +5016,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +5059,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,49 +5104,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7">
-        <v>20493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
-      </c>
-      <c r="N13" s="7">
-        <v>45410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,49 +5149,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>78</v>
-      </c>
-      <c r="D14" s="7">
-        <v>55118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>95</v>
-      </c>
-      <c r="I14" s="7">
-        <v>62847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>173</v>
-      </c>
-      <c r="N14" s="7">
-        <v>117965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,102 +5194,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>252</v>
-      </c>
-      <c r="N15" s="7">
-        <v>170532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>134443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="I16" s="7">
-        <v>993</v>
+        <v>130677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="N16" s="7">
-        <v>993</v>
+        <v>265120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,49 +5292,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>46441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>49461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>95902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,49 +5343,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>7352</v>
+        <v>4957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H18" s="7">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5845</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" s="7">
         <v>16</v>
       </c>
-      <c r="I18" s="7">
-        <v>10648</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M18" s="7">
-        <v>26</v>
-      </c>
       <c r="N18" s="7">
-        <v>18000</v>
+        <v>10802</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,49 +5394,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>87486</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>89162</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>176648</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,49 +5445,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>185315</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>164456</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>349770</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,102 +5496,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="D21" s="7">
-        <v>280153</v>
+        <v>185841</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>751</v>
+        <v>526</v>
       </c>
       <c r="N21" s="7">
-        <v>545411</v>
+        <v>371824</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>105989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I22" s="7">
-        <v>993</v>
+        <v>96626</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="N22" s="7">
-        <v>993</v>
+        <v>202615</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,49 +5600,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>61537</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>64619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>126156</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,49 +5651,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>10760</v>
+        <v>5804</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>14397</v>
+        <v>8552</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>25157</v>
+        <v>14355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,49 +5702,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>107979</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>114080</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>222058</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,49 +5753,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>240433</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="H26" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>227303</v>
+        <v>993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
-        <v>655</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>467736</v>
+        <v>993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,55 +5804,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="7">
+        <v>477</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344119</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>328</v>
+      </c>
+      <c r="D28" s="7">
+        <v>240433</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" s="7">
+        <v>327</v>
+      </c>
+      <c r="I28" s="7">
+        <v>227303</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M28" s="7">
+        <v>655</v>
+      </c>
+      <c r="N28" s="7">
+        <v>467736</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>150</v>
+      </c>
+      <c r="D29" s="7">
+        <v>107979</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H29" s="7">
+        <v>160</v>
+      </c>
+      <c r="I29" s="7">
+        <v>114080</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M29" s="7">
+        <v>310</v>
+      </c>
+      <c r="N29" s="7">
+        <v>222058</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10760</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H30" s="7">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7">
+        <v>14397</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M30" s="7">
+        <v>37</v>
+      </c>
+      <c r="N30" s="7">
+        <v>25157</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>993</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>993</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>359172</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>510</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356772</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="7">
         <v>1003</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>715944</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D89C6C1-09C2-4290-9C1F-E0395B3C70DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE43A8F5-9AAC-47C5-AD74-BF838B6C6D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27D3A375-FE04-4BDD-95D4-F14CD7DFB7FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9F73325-60B4-4A87-B0A0-441F2DA1AF53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="311">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -97,43 +97,43 @@
     <t>59,08%</t>
   </si>
   <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>26,29%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>39,68%</t>
@@ -142,595 +142,598 @@
     <t>34,8%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>24,99%</t>
@@ -739,49 +742,46 @@
     <t>19,98%</t>
   </si>
   <si>
-    <t>30,85%</t>
+    <t>30,73%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>21,5%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>5,86%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -790,73 +790,73 @@
     <t>61,15%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
   </si>
   <si>
     <t>56,58%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>58,88%</t>
   </si>
   <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>36,66%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>4,17%</t>
@@ -865,7 +865,7 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>6,2%</t>
+    <t>6,39%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -874,100 +874,103 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
     <t>66,94%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>63,71%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>28,07%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
     <t>4,73%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,83%</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8C52DD-5935-4EDB-AD4E-CA2896467844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F83ABB-436E-49A4-99FD-16F24585AA70}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2852,7 +2855,7 @@
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2885,13 @@
         <v>661</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2979,7 +2982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D367926-82A6-45F2-89C3-DB6C048ED2F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AFD3A6-07B3-4A3D-8DCD-5C3B55EC567C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4090,10 +4093,10 @@
         <v>180</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4111,13 @@
         <v>1271</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4129,7 +4132,7 @@
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4144,7 +4147,7 @@
         <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4168,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4180,7 +4183,7 @@
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4195,7 +4198,7 @@
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4266,13 @@
         <v>217381</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>278</v>
@@ -4278,13 +4281,13 @@
         <v>196583</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>596</v>
@@ -4293,13 +4296,13 @@
         <v>413964</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4317,13 @@
         <v>99470</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>167</v>
@@ -4329,13 +4332,13 @@
         <v>116635</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>310</v>
@@ -4344,13 +4347,13 @@
         <v>216105</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,10 +4371,10 @@
         <v>42</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4380,13 +4383,13 @@
         <v>7365</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4395,13 +4398,13 @@
         <v>20306</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4419,13 @@
         <v>1271</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4437,7 +4440,7 @@
         <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -4446,13 +4449,13 @@
         <v>1271</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4476,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4482,13 +4485,13 @@
         <v>675</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4503,7 +4506,7 @@
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56385954-7359-4B84-809D-ABB18438A314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4C917A-8FDD-4763-B46A-C87BA0BEC1AF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4596,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5247,13 +5250,13 @@
         <v>134443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -5262,13 +5265,13 @@
         <v>130677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>373</v>
@@ -5277,13 +5280,13 @@
         <v>265120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5301,13 @@
         <v>46441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -5313,13 +5316,13 @@
         <v>49461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -5352,10 +5355,10 @@
         <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5364,10 +5367,10 @@
         <v>5845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>244</v>
@@ -5406,7 +5409,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5421,7 +5424,7 @@
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5457,7 +5460,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5472,7 +5475,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5744,7 +5747,7 @@
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5798,7 @@
         <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5866,13 @@
         <v>240433</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H28" s="7">
         <v>327</v>
@@ -5878,13 +5881,13 @@
         <v>227303</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M28" s="7">
         <v>655</v>
@@ -5893,13 +5896,13 @@
         <v>467736</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5917,13 @@
         <v>107979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H29" s="7">
         <v>160</v>
@@ -5929,13 +5932,13 @@
         <v>114080</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>310</v>
@@ -5944,13 +5947,13 @@
         <v>222058</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>99</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5968,13 @@
         <v>10760</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -5980,13 +5983,13 @@
         <v>14397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -5995,13 +5998,13 @@
         <v>25157</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,7 +6025,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6052,7 +6055,7 @@
         <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,7 +6076,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6082,13 +6085,13 @@
         <v>993</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6097,13 +6100,13 @@
         <v>993</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE43A8F5-9AAC-47C5-AD74-BF838B6C6D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C08AE03-C961-40D6-804E-A810B3FE0704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9F73325-60B4-4A87-B0A0-441F2DA1AF53}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{187B5D87-3EF9-4F75-960E-E5BEB5B5BC9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="306">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,883 +94,868 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
     <t>59,08%</t>
   </si>
   <si>
-    <t>52,75%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>58,88%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
   </si>
   <si>
     <t>36,66%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F83ABB-436E-49A4-99FD-16F24585AA70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B047C2F-30FD-4838-8CC4-F5F9233A6C1D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2044,10 +2029,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>83608</v>
+        <v>80220</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2059,10 +2044,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I16" s="7">
-        <v>80220</v>
+        <v>83608</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2095,10 +2080,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>52526</v>
+        <v>40868</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2110,10 +2095,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>40868</v>
+        <v>52526</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2149,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>5381</v>
+        <v>5110</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2164,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>5110</v>
+        <v>5381</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2197,10 +2182,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2212,16 +2197,16 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>49</v>
@@ -2236,7 +2221,7 @@
         <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>51</v>
@@ -2254,40 +2239,40 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>53</v>
@@ -2299,25 +2284,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -2352,10 +2337,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="D22" s="7">
-        <v>131705</v>
+        <v>107851</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>56</v>
@@ -2367,10 +2352,10 @@
         <v>58</v>
       </c>
       <c r="H22" s="7">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="I22" s="7">
-        <v>107851</v>
+        <v>131705</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>59</v>
@@ -2403,10 +2388,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7">
-        <v>65194</v>
+        <v>78493</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>65</v>
@@ -2418,10 +2403,10 @@
         <v>67</v>
       </c>
       <c r="H23" s="7">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I23" s="7">
-        <v>78493</v>
+        <v>65194</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>68</v>
@@ -2454,10 +2439,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>7173</v>
+        <v>6298</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>74</v>
@@ -2469,10 +2454,10 @@
         <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>6298</v>
+        <v>7173</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>77</v>
@@ -2511,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>83</v>
@@ -2526,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>84</v>
@@ -2541,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>85</v>
@@ -2556,34 +2541,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2595,7 +2580,7 @@
         <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>89</v>
@@ -2607,25 +2592,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193304</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -2660,10 +2645,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>215313</v>
+        <v>188071</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>90</v>
@@ -2675,10 +2660,10 @@
         <v>92</v>
       </c>
       <c r="H28" s="7">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="I28" s="7">
-        <v>188071</v>
+        <v>215313</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>93</v>
@@ -2711,10 +2696,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D29" s="7">
-        <v>117720</v>
+        <v>119361</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>99</v>
@@ -2726,10 +2711,10 @@
         <v>101</v>
       </c>
       <c r="H29" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I29" s="7">
-        <v>119361</v>
+        <v>117720</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>102</v>
@@ -2762,10 +2747,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>12554</v>
+        <v>11409</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -2777,10 +2762,10 @@
         <v>110</v>
       </c>
       <c r="H30" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I30" s="7">
-        <v>11409</v>
+        <v>12554</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>111</v>
@@ -2813,31 +2798,31 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>119</v>
@@ -2852,10 +2837,10 @@
         <v>120</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,34 +2849,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2903,10 +2888,10 @@
         <v>120</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,25 +2900,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>475</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320198</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320198</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>54</v>
@@ -2962,7 +2947,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2982,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AFD3A6-07B3-4A3D-8DCD-5C3B55EC567C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEE335F-CAD4-4E57-B511-6D8A0D7B4884}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2999,7 +2984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,34 +3629,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>145</v>
+      </c>
+      <c r="D16" s="7">
+        <v>102253</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="7">
         <v>147</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>101585</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="7">
-        <v>145</v>
-      </c>
-      <c r="I16" s="7">
-        <v>102253</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
@@ -3680,13 +3665,13 @@
         <v>203838</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,34 +3680,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7">
+        <v>51365</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="7">
         <v>66</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>46775</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="7">
-        <v>73</v>
-      </c>
-      <c r="I17" s="7">
-        <v>51365</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -3731,13 +3716,13 @@
         <v>98139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,34 +3731,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>6870</v>
+        <v>1221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>1221</v>
+        <v>6870</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>147</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3782,13 +3767,13 @@
         <v>8091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,43 +3788,43 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,34 +3833,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3884,13 +3869,13 @@
         <v>675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,25 +3884,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155230</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -3952,34 +3937,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>133</v>
+      </c>
+      <c r="D22" s="7">
+        <v>94330</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="7">
         <v>171</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>115796</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="7">
-        <v>133</v>
-      </c>
-      <c r="I22" s="7">
-        <v>94330</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -3988,7 +3973,7 @@
         <v>210126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>163</v>
@@ -4003,10 +3988,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7">
-        <v>52695</v>
+        <v>65271</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>165</v>
@@ -4018,10 +4003,10 @@
         <v>167</v>
       </c>
       <c r="H23" s="7">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I23" s="7">
-        <v>65271</v>
+        <v>52695</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>168</v>
@@ -4054,10 +4039,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>6072</v>
+        <v>6143</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>174</v>
@@ -4069,10 +4054,10 @@
         <v>176</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>6143</v>
+        <v>6072</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>177</v>
@@ -4093,7 +4078,7 @@
         <v>180</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>181</v>
@@ -4105,34 +4090,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1271</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4141,13 +4126,13 @@
         <v>1271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,43 +4147,43 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,25 +4192,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>165744</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175834</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>235</v>
-      </c>
-      <c r="I27" s="7">
-        <v>165744</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -4260,34 +4245,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>278</v>
+      </c>
+      <c r="D28" s="7">
+        <v>196583</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="7">
         <v>318</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>217381</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="7">
-        <v>278</v>
-      </c>
-      <c r="I28" s="7">
-        <v>196583</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>596</v>
@@ -4296,13 +4281,13 @@
         <v>413964</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,34 +4296,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>167</v>
+      </c>
+      <c r="D29" s="7">
+        <v>116635</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="7">
         <v>143</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>99470</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H29" s="7">
-        <v>167</v>
-      </c>
-      <c r="I29" s="7">
-        <v>116635</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>310</v>
@@ -4347,13 +4332,13 @@
         <v>216105</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4347,13 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>12942</v>
+        <v>7365</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>206</v>
@@ -4377,19 +4362,19 @@
         <v>207</v>
       </c>
       <c r="H30" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I30" s="7">
-        <v>7365</v>
+        <v>12942</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4398,13 +4383,13 @@
         <v>20306</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,34 +4398,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>1271</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -4449,13 +4434,13 @@
         <v>1271</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,34 +4449,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4503,10 +4488,10 @@
         <v>120</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,25 +4500,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>456</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321258</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331064</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="7">
-        <v>456</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321258</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>54</v>
@@ -4562,7 +4547,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4582,7 +4567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4C917A-8FDD-4763-B46A-C87BA0BEC1AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A335B-53CA-49F1-ABC1-5BD1392A99DD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,7 +4584,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5244,34 +5229,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>188</v>
+      </c>
+      <c r="D16" s="7">
+        <v>130677</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7">
         <v>185</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>134443</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="H16" s="7">
-        <v>188</v>
-      </c>
-      <c r="I16" s="7">
-        <v>130677</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>373</v>
@@ -5280,13 +5265,13 @@
         <v>265120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,34 +5280,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>70</v>
+      </c>
+      <c r="D17" s="7">
+        <v>49461</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="7">
         <v>67</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>46441</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H17" s="7">
-        <v>70</v>
-      </c>
-      <c r="I17" s="7">
-        <v>49461</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -5331,13 +5316,13 @@
         <v>95902</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,34 +5331,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5845</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4957</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5845</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -5382,13 +5367,13 @@
         <v>10802</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,43 +5388,43 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,43 +5439,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,25 +5484,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>259</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>185841</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -5552,34 +5537,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>139</v>
+      </c>
+      <c r="D22" s="7">
+        <v>96626</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="7">
         <v>143</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>105989</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="H22" s="7">
-        <v>139</v>
-      </c>
-      <c r="I22" s="7">
-        <v>96626</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>282</v>
@@ -5588,13 +5573,13 @@
         <v>202615</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,34 +5588,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>90</v>
+      </c>
+      <c r="D23" s="7">
+        <v>64619</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="7">
         <v>83</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>61537</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H23" s="7">
-        <v>90</v>
-      </c>
-      <c r="I23" s="7">
-        <v>64619</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -5639,13 +5624,13 @@
         <v>126156</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,34 +5639,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8552</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5804</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8552</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5690,13 +5675,13 @@
         <v>14355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,43 +5696,43 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,34 +5741,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5792,13 +5777,13 @@
         <v>993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,25 +5792,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173330</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -5860,34 +5845,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>327</v>
+      </c>
+      <c r="D28" s="7">
+        <v>227303</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="7">
         <v>328</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>240433</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H28" s="7">
-        <v>327</v>
-      </c>
-      <c r="I28" s="7">
-        <v>227303</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M28" s="7">
         <v>655</v>
@@ -5896,13 +5881,13 @@
         <v>467736</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,34 +5896,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>160</v>
+      </c>
+      <c r="D29" s="7">
+        <v>114080</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H29" s="7">
         <v>150</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>107979</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H29" s="7">
-        <v>160</v>
-      </c>
-      <c r="I29" s="7">
-        <v>114080</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>310</v>
@@ -5947,13 +5932,13 @@
         <v>222058</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,34 +5947,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14397</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="7">
         <v>15</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>10760</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H30" s="7">
-        <v>22</v>
-      </c>
-      <c r="I30" s="7">
-        <v>14397</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -5998,13 +5983,13 @@
         <v>25157</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,43 +6004,43 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,34 +6049,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6100,13 +6085,13 @@
         <v>993</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,25 +6100,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>510</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>359172</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="7">
-        <v>510</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356772</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>54</v>
@@ -6162,7 +6147,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
